--- a/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96BC8280-E6F9-43C6-806B-8DC46C9C52D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8476F7D-EBA2-45F4-AD81-DAD545C0C33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6DB2CEA-5554-4D88-8836-9C1FA248C6A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4B1E5AA-3632-4575-AF18-A46F83DA3310}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
-  <si>
-    <t>Hogares con personas con alguna limitación en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
+  <si>
+    <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1591 +77,1525 @@
     <t>31,4%</t>
   </si>
   <si>
-    <t>26,03%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>55,81%</t>
   </si>
   <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
     <t>94,43%</t>
   </si>
   <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>93,77%</t>
@@ -1670,31 +1604,31 @@
     <t>91,83%</t>
   </si>
   <si>
-    <t>95,4%</t>
+    <t>95,33%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>4,6%</t>
+    <t>4,67%</t>
   </si>
   <si>
     <t>8,17%</t>
@@ -1703,73 +1637,73 @@
     <t>66,42%</t>
   </si>
   <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>71,55%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>69,25%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
+    <t>28,45%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>30,75%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>83,77%</t>
   </si>
   <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>81,07%</t>
+    <t>80,9%</t>
   </si>
   <si>
     <t>87,5%</t>
@@ -1778,19 +1712,19 @@
     <t>16,72%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>16,23%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>16,45%</t>
@@ -1799,22 +1733,22 @@
     <t>12,5%</t>
   </si>
   <si>
-    <t>18,93%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>70,28%</t>
   </si>
   <si>
-    <t>66,87%</t>
+    <t>67,14%</t>
   </si>
   <si>
     <t>73,02%</t>
@@ -1823,19 +1757,19 @@
     <t>75,16%</t>
   </si>
   <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>29,72%</t>
@@ -1844,70 +1778,70 @@
     <t>26,98%</t>
   </si>
   <si>
-    <t>33,13%</t>
+    <t>32,86%</t>
   </si>
   <si>
     <t>24,84%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613A009B-1ECB-4E65-AA0C-02D8F5E1971A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14FBA9C-D1BE-45B8-B056-93C9E3B3F461}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2756,10 +2690,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -2768,13 +2702,13 @@
         <v>146905</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -2783,13 +2717,13 @@
         <v>245202</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2738,13 @@
         <v>220549</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -2819,13 +2753,13 @@
         <v>188507</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>403</v>
@@ -2834,13 +2768,13 @@
         <v>409056</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,7 +2830,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2908,13 +2842,13 @@
         <v>123656</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>187</v>
@@ -2923,13 +2857,13 @@
         <v>182706</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -2938,13 +2872,13 @@
         <v>306362</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2893,13 @@
         <v>235015</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -2974,13 +2908,13 @@
         <v>188750</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>434</v>
@@ -2989,13 +2923,13 @@
         <v>423765</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +2985,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3063,13 +2997,13 @@
         <v>86997</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -3078,13 +3012,13 @@
         <v>115713</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3093,13 +3027,13 @@
         <v>202710</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3048,13 @@
         <v>116311</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -3129,13 +3063,13 @@
         <v>91955</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -3144,13 +3078,13 @@
         <v>208266</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3140,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3218,13 +3152,13 @@
         <v>98973</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>110</v>
@@ -3233,13 +3167,13 @@
         <v>113598</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -3248,13 +3182,13 @@
         <v>212571</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3203,13 @@
         <v>171838</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -3284,13 +3218,13 @@
         <v>164546</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>327</v>
@@ -3299,13 +3233,13 @@
         <v>336384</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3295,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3373,13 +3307,13 @@
         <v>212035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>291</v>
@@ -3388,13 +3322,13 @@
         <v>299706</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>501</v>
@@ -3403,13 +3337,13 @@
         <v>511741</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3358,13 @@
         <v>402992</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>330</v>
@@ -3439,13 +3373,13 @@
         <v>338513</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>718</v>
@@ -3454,13 +3388,13 @@
         <v>741505</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3450,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3528,13 +3462,13 @@
         <v>323414</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>399</v>
@@ -3543,13 +3477,13 @@
         <v>422658</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>722</v>
@@ -3558,13 +3492,13 @@
         <v>746072</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3513,13 @@
         <v>420381</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>346</v>
@@ -3594,13 +3528,13 @@
         <v>360853</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>759</v>
@@ -3609,13 +3543,13 @@
         <v>781234</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3617,13 @@
         <v>1239413</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1609</v>
@@ -3698,13 +3632,13 @@
         <v>1657104</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>2834</v>
@@ -3713,13 +3647,13 @@
         <v>2896516</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3668,13 @@
         <v>2037131</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1688</v>
@@ -3749,28 +3683,28 @@
         <v>1722094</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>3677</v>
       </c>
       <c r="N29" s="7">
-        <v>3759224</v>
+        <v>3759225</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3746,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3760,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D644787B-A231-4EA4-B5B2-B321D2600B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B108563-D399-4F14-8DF8-7AF226637802}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,39 +3906,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,39 +3951,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,39 +3996,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4045,13 @@
         <v>217877</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>250</v>
@@ -4126,13 +4060,13 @@
         <v>273908</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>447</v>
@@ -4141,13 +4075,13 @@
         <v>491784</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4096,13 @@
         <v>287650</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -4177,10 +4111,10 @@
         <v>249857</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>194</v>
@@ -4192,10 +4126,10 @@
         <v>537508</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>196</v>
@@ -4409,7 +4343,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4421,13 +4355,13 @@
         <v>283882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -4436,13 +4370,13 @@
         <v>368331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>607</v>
@@ -4451,13 +4385,13 @@
         <v>652213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4406,13 @@
         <v>384838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -4487,13 +4421,13 @@
         <v>307865</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -4502,13 +4436,13 @@
         <v>692703</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4498,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4576,13 +4510,13 @@
         <v>104710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -4591,13 +4525,13 @@
         <v>136858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -4606,13 +4540,13 @@
         <v>241569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4561,13 @@
         <v>107908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -4642,13 +4576,13 @@
         <v>82733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -4657,13 +4591,13 @@
         <v>190640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4653,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4731,13 +4665,13 @@
         <v>119631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -4746,13 +4680,13 @@
         <v>137761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -4761,13 +4695,13 @@
         <v>257392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4716,13 @@
         <v>154350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -4797,13 +4731,13 @@
         <v>142270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -4812,13 +4746,13 @@
         <v>296620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4808,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4886,13 +4820,13 @@
         <v>246797</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>307</v>
@@ -4901,13 +4835,13 @@
         <v>338505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>538</v>
@@ -4916,13 +4850,13 @@
         <v>585302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4871,13 @@
         <v>415991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>329</v>
@@ -4952,13 +4886,13 @@
         <v>355348</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>716</v>
@@ -4967,13 +4901,13 @@
         <v>771339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +4963,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5041,13 +4975,13 @@
         <v>313370</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>333</v>
@@ -5056,13 +4990,13 @@
         <v>367800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>617</v>
@@ -5071,13 +5005,13 @@
         <v>681170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5026,13 @@
         <v>465728</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>424</v>
@@ -5107,13 +5041,13 @@
         <v>456053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>857</v>
@@ -5122,13 +5056,13 @@
         <v>921781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5130,13 @@
         <v>1408405</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>1652</v>
@@ -5211,13 +5145,13 @@
         <v>1788249</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>2958</v>
@@ -5226,13 +5160,13 @@
         <v>3196654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5181,13 @@
         <v>2018374</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>1646</v>
@@ -5262,13 +5196,13 @@
         <v>1770060</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="M29" s="7">
         <v>3549</v>
@@ -5339,7 +5273,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397EDAA-3B9E-40DF-874E-0047B57493CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82403F24-1EA2-4F25-BF94-723CBA895C73}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5487,13 +5421,13 @@
         <v>136233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -5502,10 +5436,10 @@
         <v>161509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>322</v>
@@ -5538,13 +5472,13 @@
         <v>157528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -5553,13 +5487,13 @@
         <v>127194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>264</v>
@@ -5663,7 +5597,7 @@
         <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>419</v>
@@ -5672,13 +5606,13 @@
         <v>451452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5627,13 @@
         <v>308539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>248</v>
@@ -5708,13 +5642,13 @@
         <v>265668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>540</v>
@@ -5723,13 +5657,13 @@
         <v>574207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5731,13 @@
         <v>112021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -5812,13 +5746,13 @@
         <v>150707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -5827,13 +5761,13 @@
         <v>262729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5782,13 @@
         <v>206544</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -5863,13 +5797,13 @@
         <v>185602</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>406</v>
@@ -5878,13 +5812,13 @@
         <v>392145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,7 +5874,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5952,13 +5886,13 @@
         <v>153679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -5967,13 +5901,13 @@
         <v>201512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>328</v>
@@ -5982,13 +5916,13 @@
         <v>355190</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5937,13 @@
         <v>216285</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -6018,13 +5952,13 @@
         <v>185771</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -6033,10 +5967,10 @@
         <v>402057</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>381</v>
@@ -6095,7 +6029,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6113,7 +6047,7 @@
         <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -6122,13 +6056,13 @@
         <v>109653</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -6137,13 +6071,13 @@
         <v>205233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6092,13 @@
         <v>115641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -6173,13 +6107,13 @@
         <v>108934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6188,13 +6122,13 @@
         <v>224575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,7 +6184,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6262,13 +6196,13 @@
         <v>123998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -6277,13 +6211,13 @@
         <v>160330</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>273</v>
@@ -6292,13 +6226,13 @@
         <v>284328</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6247,13 @@
         <v>139125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -6328,13 +6262,13 @@
         <v>112785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>249</v>
@@ -6343,13 +6277,13 @@
         <v>251910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6339,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6417,13 +6351,13 @@
         <v>254843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -6432,13 +6366,13 @@
         <v>332669</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>526</v>
@@ -6447,13 +6381,13 @@
         <v>587511</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6402,13 @@
         <v>401715</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>346</v>
@@ -6483,13 +6417,13 @@
         <v>358625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>427</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>700</v>
@@ -6498,13 +6432,13 @@
         <v>760341</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,7 +6494,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6572,13 +6506,13 @@
         <v>321806</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>352</v>
@@ -6587,13 +6521,13 @@
         <v>399171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>661</v>
@@ -6602,13 +6536,13 @@
         <v>720977</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6557,13 @@
         <v>456777</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>403</v>
@@ -6638,13 +6572,13 @@
         <v>426996</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>36</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>844</v>
@@ -6653,13 +6587,13 @@
         <v>883773</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6661,13 @@
         <v>1392196</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>249</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>32</v>
       </c>
       <c r="H28" s="7">
         <v>1628</v>
@@ -6742,13 +6676,13 @@
         <v>1772966</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>2954</v>
@@ -6757,13 +6691,13 @@
         <v>3165163</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6712,13 @@
         <v>2002154</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>241</v>
       </c>
       <c r="H29" s="7">
         <v>1710</v>
@@ -6793,13 +6727,13 @@
         <v>1771576</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>3615</v>
@@ -6808,13 +6742,13 @@
         <v>3773729</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6804,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD72E3-524A-4F36-A005-8D4374FF4F87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E03358-AAFA-40D6-A93F-660CAEA831BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6845,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +6952,13 @@
         <v>125027</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>247</v>
@@ -7033,13 +6967,13 @@
         <v>121453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="M4" s="7">
         <v>410</v>
@@ -7048,13 +6982,13 @@
         <v>246479</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7003,13 @@
         <v>135271</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>291</v>
@@ -7084,13 +7018,13 @@
         <v>149950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>459</v>
@@ -7099,13 +7033,13 @@
         <v>285221</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7107,13 @@
         <v>411656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="H7" s="7">
         <v>534</v>
@@ -7188,13 +7122,13 @@
         <v>420955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="M7" s="7">
         <v>831</v>
@@ -7203,13 +7137,13 @@
         <v>832612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7158,13 @@
         <v>107641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="H8" s="7">
         <v>183</v>
@@ -7239,13 +7173,13 @@
         <v>133611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -7254,13 +7188,13 @@
         <v>241252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7262,13 @@
         <v>221821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="H10" s="7">
         <v>317</v>
@@ -7343,13 +7277,13 @@
         <v>236876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="M10" s="7">
         <v>556</v>
@@ -7358,13 +7292,13 @@
         <v>458698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7313,13 @@
         <v>100419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -7394,13 +7328,13 @@
         <v>136408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -7409,13 +7343,13 @@
         <v>236826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,7 +7405,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7483,13 +7417,13 @@
         <v>211312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>311</v>
@@ -7498,13 +7432,13 @@
         <v>244413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>508</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>479</v>
@@ -7513,13 +7447,13 @@
         <v>455725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7468,13 @@
         <v>110928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -7549,13 +7483,13 @@
         <v>184143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>518</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>412</v>
@@ -7564,13 +7498,13 @@
         <v>295071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,7 +7560,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7638,13 +7572,13 @@
         <v>185796</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>453</v>
@@ -7653,13 +7587,13 @@
         <v>242029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>714</v>
@@ -7668,13 +7602,13 @@
         <v>427825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7623,13 @@
         <v>10952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -7704,13 +7638,13 @@
         <v>17484</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -7719,13 +7653,13 @@
         <v>28435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7715,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7793,13 +7727,13 @@
         <v>184126</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>290</v>
@@ -7808,13 +7742,13 @@
         <v>180649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>518</v>
@@ -7823,13 +7757,13 @@
         <v>364774</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7778,13 @@
         <v>93097</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>563</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>170</v>
@@ -7859,13 +7793,13 @@
         <v>94973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -7874,13 +7808,13 @@
         <v>188071</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,7 +7870,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7948,13 +7882,13 @@
         <v>522812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>777</v>
@@ -7963,13 +7897,13 @@
         <v>673659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>1276</v>
@@ -7978,13 +7912,13 @@
         <v>1196471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +7933,13 @@
         <v>104942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
         <v>183</v>
@@ -8014,13 +7948,13 @@
         <v>130544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
         <v>283</v>
@@ -8029,13 +7963,13 @@
         <v>235486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,7 +8025,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8103,13 +8037,13 @@
         <v>688288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="H25" s="7">
         <v>716</v>
@@ -8118,13 +8052,13 @@
         <v>610368</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="M25" s="7">
         <v>1289</v>
@@ -8133,13 +8067,13 @@
         <v>1298656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8088,13 @@
         <v>171140</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>346</v>
@@ -8169,13 +8103,13 @@
         <v>258066</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>535</v>
@@ -8184,13 +8118,13 @@
         <v>429206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8192,13 @@
         <v>2550838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>3645</v>
@@ -8273,28 +8207,28 @@
         <v>2730403</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>6073</v>
       </c>
       <c r="N28" s="7">
-        <v>5281241</v>
+        <v>5281240</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8243,13 @@
         <v>834390</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="H29" s="7">
         <v>1722</v>
@@ -8324,13 +8258,13 @@
         <v>1105178</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="M29" s="7">
         <v>2670</v>
@@ -8339,13 +8273,13 @@
         <v>1939568</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,7 +8321,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8401,7 +8335,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8476F7D-EBA2-45F4-AD81-DAD545C0C33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31AF4B0B-EBF7-45D0-B391-884D886BC353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4B1E5AA-3632-4575-AF18-A46F83DA3310}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EDABC0C-F41C-4855-9F60-88DB36EC64D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
   <si>
     <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1593 +77,1587 @@
     <t>31,4%</t>
   </si>
   <si>
-    <t>25,67%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>36,44%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
     <t>34,46%</t>
   </si>
   <si>
@@ -1802,9 +1796,6 @@
     <t>71,19%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
     <t>73,74%</t>
   </si>
   <si>
@@ -1830,9 +1821,6 @@
   </si>
   <si>
     <t>26,26%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
   </si>
   <si>
     <t>26,86%</t>
@@ -2253,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14FBA9C-D1BE-45B8-B056-93C9E3B3F461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962BE463-6A19-4E04-A7C6-FE0BCD8A2024}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2690,10 +2678,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
@@ -2702,13 +2690,13 @@
         <v>146905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -2717,13 +2705,13 @@
         <v>245202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2726,13 @@
         <v>220549</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -2753,13 +2741,13 @@
         <v>188507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>403</v>
@@ -2768,13 +2756,13 @@
         <v>409056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2818,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2842,13 +2830,13 @@
         <v>123656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>187</v>
@@ -2857,13 +2845,13 @@
         <v>182706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -2872,13 +2860,13 @@
         <v>306362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2881,13 @@
         <v>235015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -3307,7 +3295,7 @@
         <v>212035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>125</v>
@@ -3358,7 +3346,7 @@
         <v>402992</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>133</v>
@@ -3480,10 +3468,10 @@
         <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>722</v>
@@ -3492,13 +3480,13 @@
         <v>746072</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3501,13 @@
         <v>420381</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>346</v>
@@ -3528,13 +3516,13 @@
         <v>360853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="M26" s="7">
         <v>759</v>
@@ -3543,13 +3531,13 @@
         <v>781234</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3605,13 @@
         <v>1239413</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>1609</v>
@@ -3632,13 +3620,13 @@
         <v>1657104</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>2834</v>
@@ -3647,13 +3635,13 @@
         <v>2896516</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,16 +3653,16 @@
         <v>1989</v>
       </c>
       <c r="D29" s="7">
-        <v>2037131</v>
+        <v>2037130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>1688</v>
@@ -3683,13 +3671,13 @@
         <v>1722094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>3677</v>
@@ -3698,13 +3686,13 @@
         <v>3759225</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3704,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3760,7 +3748,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B108563-D399-4F14-8DF8-7AF226637802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E126D9-5069-4373-B57A-F4F3EA688E6A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,7 +3789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3906,39 +3894,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,39 +3939,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,39 +3984,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4033,13 @@
         <v>217877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>250</v>
@@ -4060,13 +4048,13 @@
         <v>273908</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>447</v>
@@ -4075,13 +4063,13 @@
         <v>491784</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4084,13 @@
         <v>287650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -4111,13 +4099,13 @@
         <v>249857</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>505</v>
@@ -4126,13 +4114,13 @@
         <v>537508</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4188,13 @@
         <v>122137</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
         <v>155</v>
@@ -4215,13 +4203,13 @@
         <v>165086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -4230,13 +4218,13 @@
         <v>287224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4239,13 @@
         <v>201909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>162</v>
@@ -4266,13 +4254,13 @@
         <v>175934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>364</v>
@@ -4281,13 +4269,13 @@
         <v>377842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,7 +4331,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4355,13 +4343,13 @@
         <v>283882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -4370,13 +4358,13 @@
         <v>368331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>607</v>
@@ -4385,13 +4373,13 @@
         <v>652213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4394,13 @@
         <v>384838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -4421,13 +4409,13 @@
         <v>307865</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -4436,13 +4424,13 @@
         <v>692703</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4498,13 @@
         <v>104710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -4525,13 +4513,13 @@
         <v>136858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -4540,13 +4528,13 @@
         <v>241569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4549,13 @@
         <v>107908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -4576,13 +4564,13 @@
         <v>82733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -4591,13 +4579,13 @@
         <v>190640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4653,13 @@
         <v>119631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -4680,13 +4668,13 @@
         <v>137761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -4695,13 +4683,13 @@
         <v>257392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4704,13 @@
         <v>154350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -4734,10 +4722,10 @@
         <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -4746,13 +4734,13 @@
         <v>296620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4808,13 @@
         <v>246797</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>307</v>
@@ -4835,13 +4823,13 @@
         <v>338505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>538</v>
@@ -4850,13 +4838,13 @@
         <v>585302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4859,13 @@
         <v>415991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>329</v>
@@ -4886,13 +4874,13 @@
         <v>355348</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>716</v>
@@ -4901,13 +4889,13 @@
         <v>771339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4963,13 @@
         <v>313370</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>333</v>
@@ -4990,13 +4978,13 @@
         <v>367800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>617</v>
@@ -5005,13 +4993,13 @@
         <v>681170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5014,13 @@
         <v>465728</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>424</v>
@@ -5041,13 +5029,13 @@
         <v>456053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>857</v>
@@ -5056,13 +5044,13 @@
         <v>921781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5118,13 @@
         <v>1408405</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>1652</v>
@@ -5145,13 +5133,13 @@
         <v>1788249</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>2958</v>
@@ -5160,13 +5148,13 @@
         <v>3196654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5169,13 @@
         <v>2018374</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="H29" s="7">
         <v>1646</v>
@@ -5196,13 +5184,13 @@
         <v>1770060</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>3549</v>
@@ -5211,13 +5199,13 @@
         <v>3788434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,7 +5261,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5297,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82403F24-1EA2-4F25-BF94-723CBA895C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362EC346-C5C4-4C98-99B5-009223AD55BA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5314,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5421,13 +5409,13 @@
         <v>136233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -5436,13 +5424,13 @@
         <v>161509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>279</v>
@@ -5451,13 +5439,13 @@
         <v>297742</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5460,13 @@
         <v>157528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -5487,13 +5475,13 @@
         <v>127194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>264</v>
@@ -5502,13 +5490,13 @@
         <v>284722</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5564,13 @@
         <v>194036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>236</v>
@@ -5591,13 +5579,13 @@
         <v>257416</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>419</v>
@@ -5606,13 +5594,13 @@
         <v>451452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5615,13 @@
         <v>308539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>248</v>
@@ -5642,13 +5630,13 @@
         <v>265668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>540</v>
@@ -5657,13 +5645,13 @@
         <v>574207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5719,13 @@
         <v>112021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -5746,13 +5734,13 @@
         <v>150707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -5761,13 +5749,13 @@
         <v>262729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5770,13 @@
         <v>206544</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -5797,13 +5785,13 @@
         <v>185602</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>406</v>
@@ -5812,13 +5800,13 @@
         <v>392145</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,7 +5862,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5889,10 +5877,10 @@
         <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -5901,13 +5889,13 @@
         <v>201512</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>328</v>
@@ -5916,13 +5904,13 @@
         <v>355190</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5925,13 @@
         <v>216285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -5952,13 +5940,13 @@
         <v>185771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -5967,13 +5955,13 @@
         <v>402057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6029,13 @@
         <v>95580</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -6056,13 +6044,13 @@
         <v>109653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -6071,13 +6059,13 @@
         <v>205233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6080,13 @@
         <v>115641</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -6107,13 +6095,13 @@
         <v>108934</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6125,10 +6113,10 @@
         <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6184,13 @@
         <v>123998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>144</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>49</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -6211,13 +6199,13 @@
         <v>160330</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>396</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>273</v>
@@ -6226,13 +6214,13 @@
         <v>284328</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6235,13 @@
         <v>139125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -6262,13 +6250,13 @@
         <v>112785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>249</v>
@@ -6277,13 +6265,13 @@
         <v>251910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6339,13 @@
         <v>254843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -6366,13 +6354,13 @@
         <v>332669</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>526</v>
@@ -6381,13 +6369,13 @@
         <v>587511</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,10 +6390,10 @@
         <v>401715</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>417</v>
@@ -6423,7 +6411,7 @@
         <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
         <v>700</v>
@@ -6432,13 +6420,13 @@
         <v>760341</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,7 +6500,7 @@
         <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
         <v>352</v>
@@ -6521,7 +6509,7 @@
         <v>399171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>46</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>425</v>
@@ -6539,10 +6527,10 @@
         <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,10 +6545,10 @@
         <v>456777</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>104</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>431</v>
@@ -6572,13 +6560,13 @@
         <v>426996</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>36</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>844</v>
@@ -6587,13 +6575,13 @@
         <v>883773</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,10 +6652,10 @@
         <v>436</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>249</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>32</v>
+        <v>438</v>
       </c>
       <c r="H28" s="7">
         <v>1628</v>
@@ -6676,13 +6664,13 @@
         <v>1772966</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>438</v>
+        <v>91</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>2954</v>
@@ -6691,13 +6679,13 @@
         <v>3165163</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6700,13 @@
         <v>2002154</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>241</v>
+        <v>444</v>
       </c>
       <c r="H29" s="7">
         <v>1710</v>
@@ -6727,13 +6715,13 @@
         <v>1771576</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>3615</v>
@@ -6742,13 +6730,13 @@
         <v>3773729</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,7 +6792,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6828,7 +6816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E03358-AAFA-40D6-A93F-660CAEA831BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99D8868-D09C-4E68-8D8D-B3AA469C4114}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6845,7 +6833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6952,13 +6940,13 @@
         <v>125027</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>247</v>
@@ -6967,13 +6955,13 @@
         <v>121453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>454</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
         <v>410</v>
@@ -6982,13 +6970,13 @@
         <v>246479</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +6991,13 @@
         <v>135271</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>291</v>
@@ -7018,13 +7006,13 @@
         <v>149950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M5" s="7">
         <v>459</v>
@@ -7033,13 +7021,13 @@
         <v>285221</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7095,13 @@
         <v>411656</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H7" s="7">
         <v>534</v>
@@ -7122,13 +7110,13 @@
         <v>420955</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M7" s="7">
         <v>831</v>
@@ -7137,13 +7125,13 @@
         <v>832612</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7146,13 @@
         <v>107641</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H8" s="7">
         <v>183</v>
@@ -7173,13 +7161,13 @@
         <v>133611</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -7188,13 +7176,13 @@
         <v>241252</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7250,13 @@
         <v>221821</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H10" s="7">
         <v>317</v>
@@ -7277,13 +7265,13 @@
         <v>236876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>487</v>
+        <v>404</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>556</v>
@@ -7292,13 +7280,13 @@
         <v>458698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>489</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7301,13 @@
         <v>100419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -7328,13 +7316,13 @@
         <v>136408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>497</v>
+        <v>395</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -7343,13 +7331,13 @@
         <v>236826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>498</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,7 +7393,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7417,13 +7405,13 @@
         <v>211312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>311</v>
@@ -7432,13 +7420,13 @@
         <v>244413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>479</v>
@@ -7447,13 +7435,13 @@
         <v>455725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7456,13 @@
         <v>110928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -7483,13 +7471,13 @@
         <v>184143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>412</v>
@@ -7498,13 +7486,13 @@
         <v>295071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7560,13 @@
         <v>185796</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>453</v>
@@ -7587,13 +7575,13 @@
         <v>242029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>714</v>
@@ -7602,13 +7590,13 @@
         <v>427825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7611,13 @@
         <v>10952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -7638,13 +7626,13 @@
         <v>17484</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -7653,13 +7641,13 @@
         <v>28435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,13 +7715,13 @@
         <v>184126</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>528</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H19" s="7">
         <v>290</v>
@@ -7742,13 +7730,13 @@
         <v>180649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M19" s="7">
         <v>518</v>
@@ -7757,13 +7745,13 @@
         <v>364774</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7766,13 @@
         <v>93097</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>538</v>
       </c>
       <c r="H20" s="7">
         <v>170</v>
@@ -7793,13 +7781,13 @@
         <v>94973</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -7808,13 +7796,13 @@
         <v>188071</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7870,13 @@
         <v>522812</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>777</v>
@@ -7897,13 +7885,13 @@
         <v>673659</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>1276</v>
@@ -7912,13 +7900,13 @@
         <v>1196471</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,13 +7921,13 @@
         <v>104942</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H23" s="7">
         <v>183</v>
@@ -7948,13 +7936,13 @@
         <v>130544</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="M23" s="7">
         <v>283</v>
@@ -7963,13 +7951,13 @@
         <v>235486</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,13 +8025,13 @@
         <v>688288</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="H25" s="7">
         <v>716</v>
@@ -8052,13 +8040,13 @@
         <v>610368</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="M25" s="7">
         <v>1289</v>
@@ -8067,13 +8055,13 @@
         <v>1298656</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,13 +8076,13 @@
         <v>171140</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>346</v>
@@ -8103,13 +8091,13 @@
         <v>258066</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>535</v>
@@ -8118,13 +8106,13 @@
         <v>429206</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8180,13 @@
         <v>2550838</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>3645</v>
@@ -8207,13 +8195,13 @@
         <v>2730403</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>587</v>
+        <v>358</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M28" s="7">
         <v>6073</v>
@@ -8222,13 +8210,13 @@
         <v>5281240</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,13 +8231,13 @@
         <v>834390</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H29" s="7">
         <v>1722</v>
@@ -8258,13 +8246,13 @@
         <v>1105178</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>597</v>
+        <v>349</v>
       </c>
       <c r="M29" s="7">
         <v>2670</v>
@@ -8273,13 +8261,13 @@
         <v>1939568</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,7 +8323,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31AF4B0B-EBF7-45D0-B391-884D886BC353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6AC13B6-BD86-4CB0-B280-954455AC7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EDABC0C-F41C-4855-9F60-88DB36EC64D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F270790-D143-406B-A839-15D5CC312D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
-  <si>
-    <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>31,4%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
   </si>
   <si>
     <t>33,63%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>68,6%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>66,37%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>42,65%</t>
   </si>
   <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
   </si>
   <si>
     <t>55,95%</t>
   </si>
   <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
   </si>
   <si>
     <t>49,38%</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
   </si>
   <si>
     <t>44,05%</t>
   </si>
   <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
   </si>
   <si>
     <t>50,62%</t>
   </si>
   <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1639 +197,1717 @@
     <t>30,83%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
   </si>
   <si>
     <t>43,8%</t>
   </si>
   <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>28,01%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962BE463-6A19-4E04-A7C6-FE0BCD8A2024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA0972-7C54-4ACB-84D8-8800E23C63AB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2833,10 +2911,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>187</v>
@@ -2845,13 +2923,13 @@
         <v>182706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -2860,13 +2938,13 @@
         <v>306362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2959,13 @@
         <v>235015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -2896,13 +2974,13 @@
         <v>188750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>434</v>
@@ -2911,13 +2989,13 @@
         <v>423765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +3051,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2985,13 +3063,13 @@
         <v>86997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -3000,13 +3078,13 @@
         <v>115713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3015,13 +3093,13 @@
         <v>202710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3114,13 @@
         <v>116311</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -3051,13 +3129,13 @@
         <v>91955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -3066,13 +3144,13 @@
         <v>208266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,7 +3206,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3140,13 +3218,13 @@
         <v>98973</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>110</v>
@@ -3155,13 +3233,13 @@
         <v>113598</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -3170,13 +3248,13 @@
         <v>212571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3269,13 @@
         <v>171838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -3206,13 +3284,13 @@
         <v>164546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>327</v>
@@ -3221,13 +3299,13 @@
         <v>336384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3361,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3298,10 +3376,10 @@
         <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>291</v>
@@ -3310,13 +3388,13 @@
         <v>299706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>501</v>
@@ -3325,13 +3403,13 @@
         <v>511741</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3424,13 @@
         <v>402992</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>330</v>
@@ -3361,13 +3439,13 @@
         <v>338513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>718</v>
@@ -3376,13 +3454,13 @@
         <v>741505</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3516,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3450,13 +3528,13 @@
         <v>323414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>399</v>
@@ -3465,13 +3543,13 @@
         <v>422658</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>722</v>
@@ -3480,13 +3558,13 @@
         <v>746072</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3579,13 @@
         <v>420381</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>346</v>
@@ -3516,13 +3594,13 @@
         <v>360853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>759</v>
@@ -3531,13 +3609,13 @@
         <v>781234</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3683,13 @@
         <v>1239413</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1609</v>
@@ -3620,13 +3698,13 @@
         <v>1657104</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>2834</v>
@@ -3635,13 +3713,13 @@
         <v>2896516</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,16 +3731,16 @@
         <v>1989</v>
       </c>
       <c r="D29" s="7">
-        <v>2037130</v>
+        <v>2037131</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1688</v>
@@ -3671,28 +3749,28 @@
         <v>1722094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>3677</v>
       </c>
       <c r="N29" s="7">
-        <v>3759225</v>
+        <v>3759224</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3782,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3734,7 +3812,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3748,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E126D9-5069-4373-B57A-F4F3EA688E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E5D408-D2F0-40A5-939A-B19363ADCA95}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4111,13 @@
         <v>217877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>250</v>
@@ -4048,13 +4126,13 @@
         <v>273908</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>447</v>
@@ -4063,13 +4141,13 @@
         <v>491784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4162,13 @@
         <v>287650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -4099,13 +4177,13 @@
         <v>249857</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>505</v>
@@ -4114,13 +4192,13 @@
         <v>537508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4266,13 @@
         <v>122137</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>155</v>
@@ -4203,13 +4281,13 @@
         <v>165086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -4218,13 +4296,13 @@
         <v>287224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4317,13 @@
         <v>201909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>162</v>
@@ -4254,13 +4332,13 @@
         <v>175934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>364</v>
@@ -4269,13 +4347,13 @@
         <v>377842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4421,13 @@
         <v>283882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -4358,13 +4436,13 @@
         <v>368331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>607</v>
@@ -4373,13 +4451,13 @@
         <v>652213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4472,13 @@
         <v>384838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -4409,13 +4487,13 @@
         <v>307865</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -4424,13 +4502,13 @@
         <v>692703</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4564,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4498,13 +4576,13 @@
         <v>104710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -4513,13 +4591,13 @@
         <v>136858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -4528,13 +4606,13 @@
         <v>241569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4627,13 @@
         <v>107908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -4564,13 +4642,13 @@
         <v>82733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -4579,13 +4657,13 @@
         <v>190640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4719,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4653,13 +4731,13 @@
         <v>119631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -4668,13 +4746,13 @@
         <v>137761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -4683,13 +4761,13 @@
         <v>257392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4782,13 @@
         <v>154350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -4719,13 +4797,13 @@
         <v>142270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -4734,13 +4812,13 @@
         <v>296620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4874,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4808,13 +4886,13 @@
         <v>246797</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>307</v>
@@ -4823,13 +4901,13 @@
         <v>338505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>538</v>
@@ -4838,13 +4916,13 @@
         <v>585302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4937,13 @@
         <v>415991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>329</v>
@@ -4874,13 +4952,13 @@
         <v>355348</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>716</v>
@@ -4889,13 +4967,13 @@
         <v>771339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +5029,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4963,13 +5041,13 @@
         <v>313370</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>333</v>
@@ -4978,13 +5056,13 @@
         <v>367800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>617</v>
@@ -4993,13 +5071,13 @@
         <v>681170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5092,13 @@
         <v>465728</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>424</v>
@@ -5029,13 +5107,13 @@
         <v>456053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>857</v>
@@ -5044,13 +5122,13 @@
         <v>921781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5196,13 @@
         <v>1408405</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>1652</v>
@@ -5133,13 +5211,13 @@
         <v>1788249</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>2958</v>
@@ -5148,13 +5226,13 @@
         <v>3196654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5247,13 @@
         <v>2018374</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>1646</v>
@@ -5184,13 +5262,13 @@
         <v>1770060</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>3549</v>
@@ -5199,13 +5277,13 @@
         <v>3788434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362EC346-C5C4-4C98-99B5-009223AD55BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94507C-EE22-4A43-8784-F55461664DD8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,13 +5487,13 @@
         <v>136233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -5424,13 +5502,13 @@
         <v>161509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>279</v>
@@ -5439,13 +5517,13 @@
         <v>297742</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5538,13 @@
         <v>157528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -5475,13 +5553,13 @@
         <v>127194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>264</v>
@@ -5490,13 +5568,13 @@
         <v>284722</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5642,13 @@
         <v>194036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>236</v>
@@ -5579,13 +5657,13 @@
         <v>257416</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>419</v>
@@ -5594,13 +5672,13 @@
         <v>451452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5693,13 @@
         <v>308539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>248</v>
@@ -5630,13 +5708,13 @@
         <v>265668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>540</v>
@@ -5645,13 +5723,13 @@
         <v>574207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5797,13 @@
         <v>112021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -5734,13 +5812,13 @@
         <v>150707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -5749,13 +5827,13 @@
         <v>262729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5848,13 @@
         <v>206544</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -5785,13 +5863,13 @@
         <v>185602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>406</v>
@@ -5800,13 +5878,13 @@
         <v>392145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5952,13 @@
         <v>153679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -5889,13 +5967,13 @@
         <v>201512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>328</v>
@@ -5904,13 +5982,13 @@
         <v>355190</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +6003,13 @@
         <v>216285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -5940,13 +6018,13 @@
         <v>185771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -5955,13 +6033,13 @@
         <v>402057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6095,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6029,13 +6107,13 @@
         <v>95580</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -6044,13 +6122,13 @@
         <v>109653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -6059,13 +6137,13 @@
         <v>205233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6158,13 @@
         <v>115641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -6095,13 +6173,13 @@
         <v>108934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6110,13 +6188,13 @@
         <v>224575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6250,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6184,13 +6262,13 @@
         <v>123998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -6199,13 +6277,13 @@
         <v>160330</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>273</v>
@@ -6214,13 +6292,13 @@
         <v>284328</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6313,13 @@
         <v>139125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -6250,13 +6328,13 @@
         <v>112785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>249</v>
@@ -6265,13 +6343,13 @@
         <v>251910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6405,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6339,13 +6417,13 @@
         <v>254843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -6354,13 +6432,13 @@
         <v>332669</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>526</v>
@@ -6369,13 +6447,13 @@
         <v>587511</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6468,13 @@
         <v>401715</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>346</v>
@@ -6405,13 +6483,13 @@
         <v>358625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>700</v>
@@ -6420,13 +6498,13 @@
         <v>760341</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>230</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6560,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6494,13 +6572,13 @@
         <v>321806</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>352</v>
@@ -6509,13 +6587,13 @@
         <v>399171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>661</v>
@@ -6524,13 +6602,13 @@
         <v>720977</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6623,13 @@
         <v>456777</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>403</v>
@@ -6560,13 +6638,13 @@
         <v>426996</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>844</v>
@@ -6575,13 +6653,13 @@
         <v>883773</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6727,13 @@
         <v>1392196</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>1628</v>
@@ -6664,13 +6742,13 @@
         <v>1772966</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>91</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>2954</v>
@@ -6679,13 +6757,13 @@
         <v>3165163</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6778,13 @@
         <v>2002154</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>1710</v>
@@ -6715,13 +6793,13 @@
         <v>1771576</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>101</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>3615</v>
@@ -6730,13 +6808,13 @@
         <v>3773729</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>84</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6816,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99D8868-D09C-4E68-8D8D-B3AA469C4114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6C234D-0050-4D7D-9139-246B38AAABBB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6833,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6940,13 +7018,13 @@
         <v>125027</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>247</v>
@@ -6955,13 +7033,13 @@
         <v>121453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>410</v>
@@ -6970,13 +7048,13 @@
         <v>246479</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +7069,13 @@
         <v>135271</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>291</v>
@@ -7006,13 +7084,13 @@
         <v>149950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>459</v>
@@ -7021,13 +7099,13 @@
         <v>285221</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7173,13 @@
         <v>411656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="H7" s="7">
         <v>534</v>
@@ -7110,13 +7188,13 @@
         <v>420955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="M7" s="7">
         <v>831</v>
@@ -7125,13 +7203,13 @@
         <v>832612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7224,13 @@
         <v>107641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="H8" s="7">
         <v>183</v>
@@ -7161,13 +7239,13 @@
         <v>133611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -7176,13 +7254,13 @@
         <v>241252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7328,13 @@
         <v>221821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>317</v>
@@ -7265,13 +7343,13 @@
         <v>236876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>556</v>
@@ -7280,13 +7358,13 @@
         <v>458698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7379,13 @@
         <v>100419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -7316,13 +7394,13 @@
         <v>136408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>395</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -7331,13 +7409,13 @@
         <v>236826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7483,13 @@
         <v>211312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>311</v>
@@ -7420,13 +7498,13 @@
         <v>244413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>523</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>508</v>
       </c>
       <c r="M13" s="7">
         <v>479</v>
@@ -7435,13 +7513,13 @@
         <v>455725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7534,13 @@
         <v>110928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -7471,13 +7549,13 @@
         <v>184143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>518</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>412</v>
@@ -7486,13 +7564,13 @@
         <v>295071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,7 +7626,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7560,13 +7638,13 @@
         <v>185796</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="H16" s="7">
         <v>453</v>
@@ -7575,13 +7653,13 @@
         <v>242029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="M16" s="7">
         <v>714</v>
@@ -7590,13 +7668,13 @@
         <v>427825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7689,13 @@
         <v>10952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -7626,13 +7704,13 @@
         <v>17484</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -7641,13 +7719,13 @@
         <v>28435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,7 +7781,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7715,13 +7793,13 @@
         <v>184126</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="H19" s="7">
         <v>290</v>
@@ -7730,13 +7808,13 @@
         <v>180649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>518</v>
@@ -7745,13 +7823,13 @@
         <v>364774</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7844,13 @@
         <v>93097</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>170</v>
@@ -7781,13 +7859,13 @@
         <v>94973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -7796,13 +7874,13 @@
         <v>188071</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,7 +7936,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7870,13 +7948,13 @@
         <v>522812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>777</v>
@@ -7885,13 +7963,13 @@
         <v>673659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>1276</v>
@@ -7900,13 +7978,13 @@
         <v>1196471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7999,13 @@
         <v>104942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>183</v>
@@ -7936,13 +8014,13 @@
         <v>130544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>283</v>
@@ -7951,13 +8029,13 @@
         <v>235486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +8091,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8025,13 +8103,13 @@
         <v>688288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>716</v>
@@ -8040,13 +8118,13 @@
         <v>610368</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>1289</v>
@@ -8055,13 +8133,13 @@
         <v>1298656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8154,13 @@
         <v>171140</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>346</v>
@@ -8091,13 +8169,13 @@
         <v>258066</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>535</v>
@@ -8106,13 +8184,13 @@
         <v>429206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8258,13 @@
         <v>2550838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="H28" s="7">
         <v>3645</v>
@@ -8195,28 +8273,28 @@
         <v>2730403</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>358</v>
+        <v>609</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="M28" s="7">
         <v>6073</v>
       </c>
       <c r="N28" s="7">
-        <v>5281240</v>
+        <v>5281241</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8309,13 @@
         <v>834390</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="H29" s="7">
         <v>1722</v>
@@ -8246,13 +8324,13 @@
         <v>1105178</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>2670</v>
@@ -8261,13 +8339,13 @@
         <v>1939568</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,7 +8387,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8323,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6AC13B6-BD86-4CB0-B280-954455AC7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{144988A7-AB00-4070-A501-4469C56EE314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F270790-D143-406B-A839-15D5CC312D7E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FA63BD7E-EB95-4AB8-A552-7980A52178B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,1840 +74,1858 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>43,19%</t>
   </si>
   <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
   </si>
   <si>
     <t>56,81%</t>
   </si>
   <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA0972-7C54-4ACB-84D8-8800E23C63AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9802543-F587-4B44-ACEE-D1F90459C4CC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2437,10 +2455,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7">
-        <v>85722</v>
+        <v>117659</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2452,10 +2470,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="I4" s="7">
-        <v>93836</v>
+        <v>136144</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2467,10 +2485,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="N4" s="7">
-        <v>179558</v>
+        <v>253803</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2488,10 +2506,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D5" s="7">
-        <v>187288</v>
+        <v>155351</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2503,10 +2521,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>167002</v>
+        <v>124694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2518,10 +2536,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="N5" s="7">
-        <v>354290</v>
+        <v>280045</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2592,10 +2610,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D7" s="7">
-        <v>210318</v>
+        <v>230589</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2607,10 +2625,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="I7" s="7">
-        <v>281981</v>
+        <v>330257</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2622,10 +2640,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="N7" s="7">
-        <v>492299</v>
+        <v>560845</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2643,49 +2661,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D8" s="7">
-        <v>282757</v>
+        <v>262486</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>172</v>
+      </c>
+      <c r="I8" s="7">
+        <v>173692</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>221</v>
-      </c>
-      <c r="I8" s="7">
-        <v>221968</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>421</v>
+      </c>
+      <c r="N8" s="7">
+        <v>436179</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>490</v>
-      </c>
-      <c r="N8" s="7">
-        <v>504725</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,55 +2759,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="D10" s="7">
-        <v>98297</v>
+        <v>142433</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>228</v>
+      </c>
+      <c r="I10" s="7">
+        <v>228366</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>146</v>
-      </c>
-      <c r="I10" s="7">
-        <v>146905</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>368</v>
+      </c>
+      <c r="N10" s="7">
+        <v>370799</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>242</v>
-      </c>
-      <c r="N10" s="7">
-        <v>245202</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,49 +2816,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="D11" s="7">
-        <v>220549</v>
+        <v>176413</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>107</v>
+      </c>
+      <c r="I11" s="7">
+        <v>107046</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>189</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188507</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>277</v>
+      </c>
+      <c r="N11" s="7">
+        <v>283459</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>403</v>
-      </c>
-      <c r="N11" s="7">
-        <v>409056</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,55 +2914,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7">
-        <v>123656</v>
+        <v>186074</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>267</v>
+      </c>
+      <c r="I13" s="7">
+        <v>258329</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>187</v>
-      </c>
-      <c r="I13" s="7">
-        <v>182706</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>458</v>
+      </c>
+      <c r="N13" s="7">
+        <v>444403</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>312</v>
-      </c>
-      <c r="N13" s="7">
-        <v>306362</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,49 +2971,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="D14" s="7">
-        <v>235015</v>
+        <v>172597</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>117</v>
+      </c>
+      <c r="I14" s="7">
+        <v>113127</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>197</v>
-      </c>
-      <c r="I14" s="7">
-        <v>188750</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>288</v>
+      </c>
+      <c r="N14" s="7">
+        <v>285724</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>434</v>
-      </c>
-      <c r="N14" s="7">
-        <v>423765</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,55 +3069,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>107</v>
+      </c>
+      <c r="D16" s="7">
+        <v>101272</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="7">
+        <v>131</v>
+      </c>
+      <c r="I16" s="7">
+        <v>136854</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="7">
-        <v>86997</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="7">
-        <v>111</v>
-      </c>
-      <c r="I16" s="7">
-        <v>115713</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>238</v>
+      </c>
+      <c r="N16" s="7">
+        <v>238126</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>202</v>
-      </c>
-      <c r="N16" s="7">
-        <v>202710</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,49 +3126,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7">
-        <v>116311</v>
+        <v>102036</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>67</v>
+      </c>
+      <c r="I17" s="7">
+        <v>70814</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>87</v>
-      </c>
-      <c r="I17" s="7">
-        <v>91955</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>166</v>
+      </c>
+      <c r="N17" s="7">
+        <v>172850</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>202</v>
-      </c>
-      <c r="N17" s="7">
-        <v>208266</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,55 +3224,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="D19" s="7">
-        <v>98973</v>
+        <v>137685</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>175</v>
+      </c>
+      <c r="I19" s="7">
+        <v>179524</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>110</v>
-      </c>
-      <c r="I19" s="7">
-        <v>113598</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>313</v>
+      </c>
+      <c r="N19" s="7">
+        <v>317210</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>209</v>
-      </c>
-      <c r="N19" s="7">
-        <v>212571</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,49 +3281,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
-        <v>171838</v>
+        <v>133126</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>95</v>
+      </c>
+      <c r="I20" s="7">
+        <v>98620</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>160</v>
-      </c>
-      <c r="I20" s="7">
-        <v>164546</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>223</v>
+      </c>
+      <c r="N20" s="7">
+        <v>231745</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>327</v>
-      </c>
-      <c r="N20" s="7">
-        <v>336384</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,55 +3379,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="D22" s="7">
-        <v>212035</v>
+        <v>280644</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>383</v>
+      </c>
+      <c r="I22" s="7">
+        <v>391723</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>291</v>
-      </c>
-      <c r="I22" s="7">
-        <v>299706</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>663</v>
+      </c>
+      <c r="N22" s="7">
+        <v>672367</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="7">
-        <v>501</v>
-      </c>
-      <c r="N22" s="7">
-        <v>511741</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3436,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>388</v>
+        <v>318</v>
       </c>
       <c r="D23" s="7">
-        <v>402992</v>
+        <v>334383</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>135</v>
@@ -3433,10 +3451,10 @@
         <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="I23" s="7">
-        <v>338513</v>
+        <v>246496</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>137</v>
@@ -3448,10 +3466,10 @@
         <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>718</v>
+        <v>556</v>
       </c>
       <c r="N23" s="7">
-        <v>741505</v>
+        <v>580879</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>140</v>
@@ -3522,10 +3540,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="D25" s="7">
-        <v>323414</v>
+        <v>381308</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>144</v>
@@ -3537,10 +3555,10 @@
         <v>146</v>
       </c>
       <c r="H25" s="7">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="I25" s="7">
-        <v>422658</v>
+        <v>495848</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>147</v>
@@ -3552,10 +3570,10 @@
         <v>149</v>
       </c>
       <c r="M25" s="7">
-        <v>722</v>
+        <v>850</v>
       </c>
       <c r="N25" s="7">
-        <v>746072</v>
+        <v>877156</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>150</v>
@@ -3573,10 +3591,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="D26" s="7">
-        <v>420381</v>
+        <v>362487</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>153</v>
@@ -3588,10 +3606,10 @@
         <v>155</v>
       </c>
       <c r="H26" s="7">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="I26" s="7">
-        <v>360853</v>
+        <v>287663</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>156</v>
@@ -3603,10 +3621,10 @@
         <v>158</v>
       </c>
       <c r="M26" s="7">
-        <v>759</v>
+        <v>631</v>
       </c>
       <c r="N26" s="7">
-        <v>781234</v>
+        <v>650150</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>159</v>
@@ -3677,10 +3695,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1225</v>
+        <v>1574</v>
       </c>
       <c r="D28" s="7">
-        <v>1239413</v>
+        <v>1577663</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
@@ -3692,10 +3710,10 @@
         <v>164</v>
       </c>
       <c r="H28" s="7">
-        <v>1609</v>
+        <v>2108</v>
       </c>
       <c r="I28" s="7">
-        <v>1657104</v>
+        <v>2157045</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>165</v>
@@ -3707,10 +3725,10 @@
         <v>167</v>
       </c>
       <c r="M28" s="7">
-        <v>2834</v>
+        <v>3682</v>
       </c>
       <c r="N28" s="7">
-        <v>2896516</v>
+        <v>3734709</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>168</v>
@@ -3719,7 +3737,7 @@
         <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,49 +3746,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1989</v>
+        <v>1640</v>
       </c>
       <c r="D29" s="7">
-        <v>2037131</v>
+        <v>1698880</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>1189</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1222152</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="7">
-        <v>1688</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1722094</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>2829</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2921032</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M29" s="7">
-        <v>3677</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3759224</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3800,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3797,7 +3815,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3812,7 +3830,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3844,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E5D408-D2F0-40A5-939A-B19363ADCA95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0FC0A-3864-4528-873C-4EDA30B75812}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3968,43 +3986,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="D4" s="7">
+        <v>180256</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="I4" s="7">
+        <v>225233</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>371</v>
+      </c>
+      <c r="N4" s="7">
+        <v>405489</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,43 +4037,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="D5" s="7">
+        <v>114482</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="I5" s="7">
+        <v>62012</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="N5" s="7">
+        <v>176494</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,43 +4088,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,49 +4141,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="D7" s="7">
-        <v>217877</v>
+        <v>267013</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="I7" s="7">
-        <v>273908</v>
+        <v>368122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
-        <v>447</v>
+        <v>579</v>
       </c>
       <c r="N7" s="7">
-        <v>491784</v>
+        <v>635135</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,49 +4192,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="D8" s="7">
-        <v>287650</v>
+        <v>238514</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>249857</v>
+        <v>155643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
-        <v>505</v>
+        <v>373</v>
       </c>
       <c r="N8" s="7">
-        <v>537508</v>
+        <v>394157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,55 +4290,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="D10" s="7">
-        <v>122137</v>
+        <v>192586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="I10" s="7">
-        <v>165086</v>
+        <v>233986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
-        <v>272</v>
+        <v>405</v>
       </c>
       <c r="N10" s="7">
-        <v>287224</v>
+        <v>426572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,49 +4347,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7">
-        <v>201909</v>
+        <v>131460</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="I11" s="7">
-        <v>175934</v>
+        <v>107034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="N11" s="7">
-        <v>377842</v>
+        <v>238494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,55 +4445,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="D13" s="7">
-        <v>283882</v>
+        <v>221107</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="I13" s="7">
-        <v>368331</v>
+        <v>276695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>607</v>
+        <v>465</v>
       </c>
       <c r="N13" s="7">
-        <v>652213</v>
+        <v>497802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4502,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7">
-        <v>384838</v>
+        <v>152875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
-        <v>307865</v>
+        <v>112256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>646</v>
+        <v>250</v>
       </c>
       <c r="N14" s="7">
-        <v>692703</v>
+        <v>265131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4532,10 +4568,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4547,10 +4583,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4564,55 +4600,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>104710</v>
+        <v>119803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="I16" s="7">
-        <v>136858</v>
+        <v>180758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="N16" s="7">
-        <v>241569</v>
+        <v>300562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +4657,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>107908</v>
+        <v>92815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>82733</v>
+        <v>38833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="N17" s="7">
-        <v>190640</v>
+        <v>131647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,55 +4755,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="D19" s="7">
-        <v>119631</v>
+        <v>171526</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="I19" s="7">
-        <v>137761</v>
+        <v>217152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
-        <v>247</v>
+        <v>372</v>
       </c>
       <c r="N19" s="7">
-        <v>257392</v>
+        <v>388678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,49 +4812,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7">
-        <v>154350</v>
+        <v>102455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7">
-        <v>142270</v>
+        <v>62879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
+        <v>158</v>
+      </c>
+      <c r="N20" s="7">
+        <v>165334</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="N20" s="7">
-        <v>296620</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,55 +4910,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="D22" s="7">
-        <v>246797</v>
+        <v>383905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
-        <v>307</v>
+        <v>435</v>
       </c>
       <c r="I22" s="7">
-        <v>338505</v>
+        <v>476644</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
-        <v>538</v>
+        <v>796</v>
       </c>
       <c r="N22" s="7">
-        <v>585302</v>
+        <v>860548</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,49 +4967,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>387</v>
+        <v>257</v>
       </c>
       <c r="D23" s="7">
-        <v>415991</v>
+        <v>278883</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="I23" s="7">
-        <v>355348</v>
+        <v>217209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
-        <v>716</v>
+        <v>458</v>
       </c>
       <c r="N23" s="7">
-        <v>771339</v>
+        <v>496093</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,49 +5071,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="D25" s="7">
-        <v>313370</v>
+        <v>370754</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="I25" s="7">
-        <v>367800</v>
+        <v>483232</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
-        <v>617</v>
+        <v>775</v>
       </c>
       <c r="N25" s="7">
-        <v>681170</v>
+        <v>853987</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,49 +5122,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="D26" s="7">
-        <v>465728</v>
+        <v>408344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
-        <v>424</v>
+        <v>318</v>
       </c>
       <c r="I26" s="7">
-        <v>456053</v>
+        <v>340621</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
-        <v>857</v>
+        <v>699</v>
       </c>
       <c r="N26" s="7">
-        <v>921781</v>
+        <v>748964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,49 +5226,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1306</v>
+        <v>1774</v>
       </c>
       <c r="D28" s="7">
-        <v>1408405</v>
+        <v>1906951</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
-        <v>1652</v>
+        <v>2273</v>
       </c>
       <c r="I28" s="7">
-        <v>1788249</v>
+        <v>2461823</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
-        <v>2958</v>
+        <v>4047</v>
       </c>
       <c r="N28" s="7">
-        <v>3196654</v>
+        <v>4368774</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,49 +5277,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1903</v>
+        <v>1435</v>
       </c>
       <c r="D29" s="7">
-        <v>2018374</v>
+        <v>1519828</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
-        <v>1646</v>
+        <v>1025</v>
       </c>
       <c r="I29" s="7">
-        <v>1770060</v>
+        <v>1096486</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
-        <v>3549</v>
+        <v>2460</v>
       </c>
       <c r="N29" s="7">
-        <v>3788434</v>
+        <v>2616314</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5375,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94507C-EE22-4A43-8784-F55461664DD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB5C8BC-1FCA-4A04-B5E2-CA7AA355949F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,49 +5517,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D4" s="7">
-        <v>136233</v>
+        <v>166455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="I4" s="7">
-        <v>161509</v>
+        <v>198810</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="N4" s="7">
-        <v>297742</v>
+        <v>365265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,49 +5568,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D5" s="7">
-        <v>157528</v>
+        <v>127306</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7">
-        <v>127194</v>
+        <v>89893</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="N5" s="7">
-        <v>284722</v>
+        <v>217199</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,49 +5672,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="D7" s="7">
-        <v>194036</v>
+        <v>289108</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H7" s="7">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="I7" s="7">
-        <v>257416</v>
+        <v>371835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="N7" s="7">
-        <v>451452</v>
+        <v>660943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,49 +5723,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="D8" s="7">
-        <v>308539</v>
+        <v>213467</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="I8" s="7">
-        <v>265668</v>
+        <v>151249</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M8" s="7">
         <v>346</v>
       </c>
-      <c r="M8" s="7">
-        <v>540</v>
-      </c>
       <c r="N8" s="7">
-        <v>574207</v>
+        <v>364716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,55 +5821,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>112021</v>
+        <v>168067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="I10" s="7">
-        <v>150707</v>
+        <v>207240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
-        <v>261</v>
+        <v>376</v>
       </c>
       <c r="N10" s="7">
-        <v>262729</v>
+        <v>375307</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,49 +5878,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>206544</v>
+        <v>150498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>185602</v>
+        <v>129069</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
-        <v>406</v>
+        <v>291</v>
       </c>
       <c r="N11" s="7">
-        <v>392145</v>
+        <v>279567</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,55 +5976,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="D13" s="7">
-        <v>153679</v>
+        <v>215750</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="I13" s="7">
-        <v>201512</v>
+        <v>275965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
-        <v>328</v>
+        <v>459</v>
       </c>
       <c r="N13" s="7">
-        <v>355190</v>
+        <v>491715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,49 +6033,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="D14" s="7">
-        <v>216285</v>
+        <v>154214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
-        <v>185771</v>
+        <v>111318</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
-        <v>384</v>
+        <v>253</v>
       </c>
       <c r="N14" s="7">
-        <v>402057</v>
+        <v>265532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,55 +6131,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>95580</v>
+        <v>111331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" s="7">
+        <v>141</v>
+      </c>
+      <c r="I16" s="7">
+        <v>140436</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H16" s="7">
-        <v>111</v>
-      </c>
-      <c r="I16" s="7">
-        <v>109653</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>386</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="N16" s="7">
-        <v>205233</v>
+        <v>251767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,49 +6188,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7">
-        <v>115641</v>
+        <v>99890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H17" s="7">
+        <v>82</v>
+      </c>
+      <c r="I17" s="7">
+        <v>78151</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H17" s="7">
-        <v>112</v>
-      </c>
-      <c r="I17" s="7">
-        <v>108934</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="M17" s="7">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="N17" s="7">
-        <v>224575</v>
+        <v>178041</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,55 +6286,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D19" s="7">
-        <v>123998</v>
+        <v>130287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I19" s="7">
-        <v>160330</v>
+        <v>169278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="N19" s="7">
-        <v>284328</v>
+        <v>299565</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,49 +6343,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
-        <v>139125</v>
+        <v>132836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I20" s="7">
-        <v>112785</v>
+        <v>103837</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="N20" s="7">
-        <v>251910</v>
+        <v>236673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,55 +6441,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="D22" s="7">
-        <v>254843</v>
+        <v>292860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="I22" s="7">
-        <v>332669</v>
+        <v>390700</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="N22" s="7">
-        <v>587511</v>
+        <v>683560</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,49 +6498,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="D23" s="7">
-        <v>401715</v>
+        <v>363698</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="I23" s="7">
-        <v>358625</v>
+        <v>300594</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>427</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7">
-        <v>700</v>
+        <v>615</v>
       </c>
       <c r="N23" s="7">
-        <v>760341</v>
+        <v>664292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,49 +6602,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="D25" s="7">
-        <v>321806</v>
+        <v>398776</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
-        <v>352</v>
+        <v>445</v>
       </c>
       <c r="I25" s="7">
-        <v>399171</v>
+        <v>505072</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
-        <v>661</v>
+        <v>830</v>
       </c>
       <c r="N25" s="7">
-        <v>720977</v>
+        <v>903848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,49 +6653,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>441</v>
+        <v>365</v>
       </c>
       <c r="D26" s="7">
-        <v>456777</v>
+        <v>379807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>107</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="I26" s="7">
-        <v>426996</v>
+        <v>321095</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
-        <v>844</v>
+        <v>675</v>
       </c>
       <c r="N26" s="7">
-        <v>883773</v>
+        <v>700902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,49 +6757,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1326</v>
+        <v>1706</v>
       </c>
       <c r="D28" s="7">
-        <v>1392196</v>
+        <v>1772634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H28" s="7">
-        <v>1628</v>
+        <v>2068</v>
       </c>
       <c r="I28" s="7">
-        <v>1772966</v>
+        <v>2259337</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
-        <v>2954</v>
+        <v>3774</v>
       </c>
       <c r="N28" s="7">
-        <v>3165163</v>
+        <v>4031970</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,49 +6808,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1905</v>
+        <v>1525</v>
       </c>
       <c r="D29" s="7">
-        <v>2002154</v>
+        <v>1621716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
-        <v>1710</v>
+        <v>1270</v>
       </c>
       <c r="I29" s="7">
-        <v>1771576</v>
+        <v>1285205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
-        <v>3615</v>
+        <v>2795</v>
       </c>
       <c r="N29" s="7">
-        <v>3773729</v>
+        <v>2906922</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6906,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6C234D-0050-4D7D-9139-246B38AAABBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE95A2A-1606-40AD-9D66-DB176EA4454B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,49 +7048,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="D4" s="7">
-        <v>125027</v>
+        <v>201413</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
-        <v>247</v>
+        <v>374</v>
       </c>
       <c r="I4" s="7">
-        <v>121453</v>
+        <v>204585</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
-        <v>410</v>
+        <v>578</v>
       </c>
       <c r="N4" s="7">
-        <v>246479</v>
+        <v>405997</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,49 +7099,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7">
-        <v>135271</v>
+        <v>110030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="H5" s="7">
+        <v>164</v>
+      </c>
+      <c r="I5" s="7">
+        <v>85050</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="M5" s="7">
         <v>291</v>
       </c>
-      <c r="I5" s="7">
-        <v>149950</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M5" s="7">
-        <v>459</v>
-      </c>
       <c r="N5" s="7">
-        <v>285221</v>
+        <v>195080</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7153,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7132,7 +7168,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7147,7 +7183,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7167,49 +7203,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="D7" s="7">
-        <v>411656</v>
+        <v>209116</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="H7" s="7">
-        <v>534</v>
+        <v>354</v>
       </c>
       <c r="I7" s="7">
-        <v>420955</v>
+        <v>234843</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="M7" s="7">
-        <v>831</v>
+        <v>523</v>
       </c>
       <c r="N7" s="7">
-        <v>832612</v>
+        <v>443959</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,49 +7254,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="D8" s="7">
-        <v>107641</v>
+        <v>309274</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="H8" s="7">
-        <v>183</v>
+        <v>363</v>
       </c>
       <c r="I8" s="7">
-        <v>133611</v>
+        <v>280126</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="M8" s="7">
-        <v>268</v>
+        <v>576</v>
       </c>
       <c r="N8" s="7">
-        <v>241252</v>
+        <v>589400</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7308,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7287,7 +7323,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7302,7 +7338,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7316,55 +7352,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D10" s="7">
-        <v>221821</v>
+        <v>154192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="I10" s="7">
-        <v>236876</v>
+        <v>178378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="M10" s="7">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="N10" s="7">
-        <v>458698</v>
+        <v>332569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,49 +7409,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D11" s="7">
-        <v>100419</v>
+        <v>161858</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H11" s="7">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>136408</v>
+        <v>170750</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N11" s="7">
-        <v>236826</v>
+        <v>332609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7463,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7442,7 +7478,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7457,7 +7493,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7471,55 +7507,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D13" s="7">
-        <v>211312</v>
+        <v>139789</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="I13" s="7">
-        <v>244413</v>
+        <v>193728</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="N13" s="7">
-        <v>455725</v>
+        <v>333516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,49 +7564,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D14" s="7">
-        <v>110928</v>
+        <v>172768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="I14" s="7">
-        <v>184143</v>
+        <v>281990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="N14" s="7">
-        <v>295071</v>
+        <v>454758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7618,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7597,7 +7633,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7612,7 +7648,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7626,55 +7662,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>185796</v>
+        <v>23279</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
-        <v>453</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>242029</v>
+        <v>38655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M16" s="7">
-        <v>714</v>
+        <v>139</v>
       </c>
       <c r="N16" s="7">
-        <v>427825</v>
+        <v>61934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,49 +7719,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="D17" s="7">
-        <v>10952</v>
+        <v>155463</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="I17" s="7">
-        <v>17484</v>
+        <v>220124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="M17" s="7">
-        <v>60</v>
+        <v>635</v>
       </c>
       <c r="N17" s="7">
-        <v>28435</v>
+        <v>375587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,7 +7773,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7752,7 +7788,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7767,7 +7803,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7781,55 +7817,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D19" s="7">
-        <v>184126</v>
+        <v>155020</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="H19" s="7">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I19" s="7">
-        <v>180649</v>
+        <v>147720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="M19" s="7">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="N19" s="7">
-        <v>364774</v>
+        <v>302741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,49 +7874,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D20" s="7">
-        <v>93097</v>
+        <v>114616</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H20" s="7">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I20" s="7">
-        <v>94973</v>
+        <v>109336</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="M20" s="7">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="N20" s="7">
-        <v>188071</v>
+        <v>223951</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7928,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7907,7 +7943,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7922,7 +7958,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7936,55 +7972,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="D22" s="7">
-        <v>522812</v>
+        <v>206602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
-        <v>777</v>
+        <v>395</v>
       </c>
       <c r="I22" s="7">
-        <v>673659</v>
+        <v>456895</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="M22" s="7">
-        <v>1276</v>
+        <v>604</v>
       </c>
       <c r="N22" s="7">
-        <v>1196471</v>
+        <v>663497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,49 +8029,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="D23" s="7">
-        <v>104942</v>
+        <v>417677</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>323</v>
       </c>
       <c r="H23" s="7">
-        <v>183</v>
+        <v>565</v>
       </c>
       <c r="I23" s="7">
-        <v>130544</v>
+        <v>392370</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
-        <v>283</v>
+        <v>955</v>
       </c>
       <c r="N23" s="7">
-        <v>235486</v>
+        <v>810047</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8083,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8062,7 +8098,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8077,7 +8113,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8097,49 +8133,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>573</v>
+        <v>289</v>
       </c>
       <c r="D25" s="7">
-        <v>688288</v>
+        <v>229364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
-        <v>716</v>
+        <v>528</v>
       </c>
       <c r="I25" s="7">
-        <v>610368</v>
+        <v>324014</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
-        <v>1289</v>
+        <v>817</v>
       </c>
       <c r="N25" s="7">
-        <v>1298656</v>
+        <v>553378</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>595</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,49 +8184,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>189</v>
+        <v>473</v>
       </c>
       <c r="D26" s="7">
-        <v>171140</v>
+        <v>699356</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="H26" s="7">
-        <v>346</v>
+        <v>534</v>
       </c>
       <c r="I26" s="7">
-        <v>258066</v>
+        <v>393717</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="M26" s="7">
-        <v>535</v>
+        <v>1007</v>
       </c>
       <c r="N26" s="7">
-        <v>429206</v>
+        <v>1093074</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>603</v>
+        <v>507</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,7 +8238,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8217,7 +8253,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8232,7 +8268,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8252,49 +8288,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2428</v>
+        <v>1494</v>
       </c>
       <c r="D28" s="7">
-        <v>2550838</v>
+        <v>1318774</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="H28" s="7">
-        <v>3645</v>
+        <v>2700</v>
       </c>
       <c r="I28" s="7">
-        <v>2730403</v>
+        <v>1778817</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
-        <v>6073</v>
+        <v>4194</v>
       </c>
       <c r="N28" s="7">
-        <v>5281241</v>
+        <v>3097592</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,49 +8339,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>948</v>
+        <v>1882</v>
       </c>
       <c r="D29" s="7">
-        <v>834390</v>
+        <v>2141043</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
-        <v>1722</v>
+        <v>2667</v>
       </c>
       <c r="I29" s="7">
-        <v>1105178</v>
+        <v>1933463</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
-        <v>2670</v>
+        <v>4549</v>
       </c>
       <c r="N29" s="7">
-        <v>1939568</v>
+        <v>4074505</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,7 +8393,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8372,7 +8408,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8387,7 +8423,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8401,7 +8437,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
